--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lta-Ltbr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lta-Ltbr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Lta</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.880409333333333</v>
+        <v>0.4993536666666667</v>
       </c>
       <c r="H2">
-        <v>5.641228</v>
+        <v>1.498061</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9584860631692095</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9584860631692095</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.74343533333333</v>
+        <v>15.01320933333333</v>
       </c>
       <c r="N2">
-        <v>41.230306</v>
+        <v>45.039628</v>
       </c>
       <c r="O2">
-        <v>0.2479265276060321</v>
+        <v>0.2980359842117177</v>
       </c>
       <c r="P2">
-        <v>0.2479265276060321</v>
+        <v>0.2980359842117177</v>
       </c>
       <c r="Q2">
-        <v>25.84328407286311</v>
+        <v>7.496901129034223</v>
       </c>
       <c r="R2">
-        <v>232.589556655768</v>
+        <v>67.47211016130801</v>
       </c>
       <c r="S2">
-        <v>0.2479265276060321</v>
+        <v>0.28566333718985</v>
       </c>
       <c r="T2">
-        <v>0.2479265276060321</v>
+        <v>0.28566333718985</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.880409333333333</v>
+        <v>0.4993536666666667</v>
       </c>
       <c r="H3">
-        <v>5.641228</v>
+        <v>1.498061</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9584860631692095</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9584860631692095</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>51.318172</v>
       </c>
       <c r="O3">
-        <v>0.308586993922604</v>
+        <v>0.3395823318071414</v>
       </c>
       <c r="P3">
-        <v>0.3085869939226041</v>
+        <v>0.3395823318071414</v>
       </c>
       <c r="Q3">
-        <v>32.16638986613512</v>
+        <v>8.541972451610224</v>
       </c>
       <c r="R3">
-        <v>289.497508795216</v>
+        <v>76.87775206449201</v>
       </c>
       <c r="S3">
-        <v>0.308586993922604</v>
+        <v>0.3254849323356472</v>
       </c>
       <c r="T3">
-        <v>0.3085869939226041</v>
+        <v>0.3254849323356472</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.880409333333333</v>
+        <v>0.4993536666666667</v>
       </c>
       <c r="H4">
-        <v>5.641228</v>
+        <v>1.498061</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.9584860631692095</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.9584860631692095</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.60784966666667</v>
+        <v>11.21655833333333</v>
       </c>
       <c r="N4">
-        <v>31.823549</v>
+        <v>33.649675</v>
       </c>
       <c r="O4">
-        <v>0.1913617133879728</v>
+        <v>0.2226664484668797</v>
       </c>
       <c r="P4">
-        <v>0.1913617133879728</v>
+        <v>0.2226664484668797</v>
       </c>
       <c r="Q4">
-        <v>19.94709951979689</v>
+        <v>5.601029531130556</v>
       </c>
       <c r="R4">
-        <v>179.523895678172</v>
+        <v>50.40926578017501</v>
       </c>
       <c r="S4">
-        <v>0.1913617133879728</v>
+        <v>0.2134226875908892</v>
       </c>
       <c r="T4">
-        <v>0.1913617133879728</v>
+        <v>0.2134226875908892</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.880409333333333</v>
+        <v>0.4993536666666667</v>
       </c>
       <c r="H5">
-        <v>5.641228</v>
+        <v>1.498061</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.9584860631692095</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.9584860631692095</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,276 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.97615833333334</v>
+        <v>7.037989333333333</v>
       </c>
       <c r="N5">
-        <v>41.92847500000001</v>
+        <v>21.113968</v>
       </c>
       <c r="O5">
-        <v>0.252124765083391</v>
+        <v>0.1397152355142612</v>
       </c>
       <c r="P5">
-        <v>0.2521247650833911</v>
+        <v>0.1397152355142612</v>
       </c>
       <c r="Q5">
-        <v>26.28089857414445</v>
+        <v>3.514445779560889</v>
       </c>
       <c r="R5">
-        <v>236.5280871673</v>
+        <v>31.630012016048</v>
       </c>
       <c r="S5">
-        <v>0.252124765083391</v>
+        <v>0.1339151060528231</v>
       </c>
       <c r="T5">
-        <v>0.2521247650833911</v>
+        <v>0.1339151060528231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.021628</v>
+      </c>
+      <c r="H6">
+        <v>0.064884</v>
+      </c>
+      <c r="I6">
+        <v>0.04151393683079058</v>
+      </c>
+      <c r="J6">
+        <v>0.04151393683079059</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>15.01320933333333</v>
+      </c>
+      <c r="N6">
+        <v>45.039628</v>
+      </c>
+      <c r="O6">
+        <v>0.2980359842117177</v>
+      </c>
+      <c r="P6">
+        <v>0.2980359842117177</v>
+      </c>
+      <c r="Q6">
+        <v>0.3247056914613333</v>
+      </c>
+      <c r="R6">
+        <v>2.922351223152</v>
+      </c>
+      <c r="S6">
+        <v>0.01237264702186775</v>
+      </c>
+      <c r="T6">
+        <v>0.01237264702186775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.021628</v>
+      </c>
+      <c r="H7">
+        <v>0.064884</v>
+      </c>
+      <c r="I7">
+        <v>0.04151393683079058</v>
+      </c>
+      <c r="J7">
+        <v>0.04151393683079059</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>17.10605733333334</v>
+      </c>
+      <c r="N7">
+        <v>51.318172</v>
+      </c>
+      <c r="O7">
+        <v>0.3395823318071414</v>
+      </c>
+      <c r="P7">
+        <v>0.3395823318071414</v>
+      </c>
+      <c r="Q7">
+        <v>0.3699698080053334</v>
+      </c>
+      <c r="R7">
+        <v>3.329728272048</v>
+      </c>
+      <c r="S7">
+        <v>0.01409739947149423</v>
+      </c>
+      <c r="T7">
+        <v>0.01409739947149424</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.021628</v>
+      </c>
+      <c r="H8">
+        <v>0.064884</v>
+      </c>
+      <c r="I8">
+        <v>0.04151393683079058</v>
+      </c>
+      <c r="J8">
+        <v>0.04151393683079059</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>11.21655833333333</v>
+      </c>
+      <c r="N8">
+        <v>33.649675</v>
+      </c>
+      <c r="O8">
+        <v>0.2226664484668797</v>
+      </c>
+      <c r="P8">
+        <v>0.2226664484668797</v>
+      </c>
+      <c r="Q8">
+        <v>0.2425917236333333</v>
+      </c>
+      <c r="R8">
+        <v>2.1833255127</v>
+      </c>
+      <c r="S8">
+        <v>0.009243760875990532</v>
+      </c>
+      <c r="T8">
+        <v>0.009243760875990534</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.021628</v>
+      </c>
+      <c r="H9">
+        <v>0.064884</v>
+      </c>
+      <c r="I9">
+        <v>0.04151393683079058</v>
+      </c>
+      <c r="J9">
+        <v>0.04151393683079059</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>7.037989333333333</v>
+      </c>
+      <c r="N9">
+        <v>21.113968</v>
+      </c>
+      <c r="O9">
+        <v>0.1397152355142612</v>
+      </c>
+      <c r="P9">
+        <v>0.1397152355142612</v>
+      </c>
+      <c r="Q9">
+        <v>0.1522176333013333</v>
+      </c>
+      <c r="R9">
+        <v>1.369958699712</v>
+      </c>
+      <c r="S9">
+        <v>0.005800129461438068</v>
+      </c>
+      <c r="T9">
+        <v>0.00580012946143807</v>
       </c>
     </row>
   </sheetData>
